--- a/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>廠牌型號</t>
   </si>
@@ -119,6 +119,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>鴻海精密工業股份有限公 司</t>
   </si>
   <si>
@@ -140,6 +149,12 @@
     <t>興勤電子工業股份有限公 司</t>
   </si>
   <si>
+    <t>2013-12-19</t>
+  </si>
+  <si>
+    <t>楊玉欣</t>
+  </si>
+  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -192,9 +207,6 @@
   </si>
   <si>
     <t>信用貸款</t>
-  </si>
-  <si>
-    <t>楊玉欣</t>
   </si>
   <si>
     <t>遠東銀行板橋中正分行 新北市板橋區中正路228號</t>
@@ -803,13 +815,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -828,13 +840,22 @@
       <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -851,13 +872,22 @@
       <c r="G2" s="2">
         <v>12520</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -874,13 +904,22 @@
       <c r="G3" s="2">
         <v>7480</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -897,13 +936,22 @@
       <c r="G4" s="2">
         <v>14950</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -920,13 +968,22 @@
       <c r="G5" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -943,13 +1000,22 @@
       <c r="G6" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -966,13 +1032,22 @@
       <c r="G7" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -988,6 +1063,15 @@
       </c>
       <c r="G8" s="2">
         <v>100000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1757</v>
       </c>
     </row>
   </sheetData>
@@ -1005,13 +1089,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1019,10 +1103,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1033,10 +1117,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1047,10 +1131,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1061,10 +1145,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1075,10 +1159,10 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1089,10 +1173,10 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1103,10 +1187,10 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1130,19 +1214,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1150,22 +1234,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>3144844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1173,22 +1257,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
   <si>
     <t>廠牌型號</t>
   </si>
@@ -119,6 +119,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -128,16 +131,16 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>鴻海精密工業股份有限公 司</t>
+    <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
     <t>位速科技股份有限公司</t>
   </si>
   <si>
-    <t>碩禾電子材料股份有限公 司</t>
-  </si>
-  <si>
-    <t>欣陸投資控股股份有限公 司</t>
+    <t>碩禾電子材料股份有限公司</t>
+  </si>
+  <si>
+    <t>欣陸投資控股股份有限公司</t>
   </si>
   <si>
     <t>展茂光電股份有限公司</t>
@@ -146,7 +149,10 @@
     <t>興富發建設股份有限公司</t>
   </si>
   <si>
-    <t>興勤電子工業股份有限公 司</t>
+    <t>興勤電子工業股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-19</t>
@@ -815,13 +821,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -849,13 +855,16 @@
       <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -873,21 +882,24 @@
         <v>12520</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="2">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -905,21 +917,24 @@
         <v>7480</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="2">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -937,21 +952,24 @@
         <v>14950</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="2">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -969,21 +987,24 @@
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="2">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1001,21 +1022,24 @@
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="2">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -1033,21 +1057,24 @@
         <v>1500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="2">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1065,12 +1092,15 @@
         <v>100000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="2">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="2">
         <v>1757</v>
       </c>
     </row>
@@ -1089,13 +1119,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1103,10 +1133,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1117,10 +1147,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1131,10 +1161,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1145,10 +1175,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1159,10 +1189,10 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1173,10 +1203,10 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1187,10 +1217,10 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1214,19 +1244,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1234,22 +1264,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>3144844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1257,22 +1287,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
   <si>
     <t>廠牌型號</t>
   </si>
@@ -122,6 +122,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -131,6 +134,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
@@ -155,10 +164,16 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-19</t>
   </si>
   <si>
     <t>楊玉欣</t>
+  </si>
+  <si>
+    <t>tmp7d8c1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -821,13 +836,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -858,13 +873,22 @@
       <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -882,24 +906,33 @@
         <v>12520</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="2">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -917,24 +950,33 @@
         <v>7480</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="2">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -952,24 +994,33 @@
         <v>14950</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="2">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -987,24 +1038,33 @@
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="2">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1022,24 +1082,33 @@
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="2">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -1057,24 +1126,33 @@
         <v>1500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="2">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1092,16 +1170,25 @@
         <v>100000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="2">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2">
         <v>1757</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1119,13 +1206,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1133,10 +1220,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1147,10 +1234,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1161,10 +1248,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1175,10 +1262,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1189,10 +1276,10 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1203,10 +1290,10 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -1217,10 +1304,10 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1244,19 +1331,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1264,22 +1351,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>3144844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1287,22 +1374,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
@@ -44,7 +44,7 @@
     <t>孫效智</t>
   </si>
   <si>
-    <t>94年05月 03日</t>
+    <t>94年05月03日</t>
   </si>
   <si>
     <t>買賣</t>
@@ -71,16 +71,16 @@
     <t>華南商業銀行台大分行</t>
   </si>
   <si>
-    <t>匯豐（台灣）商業銀行台北 分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行板橋分 行</t>
-  </si>
-  <si>
-    <t>遠東國際商業銀行板橋埔 墘分行</t>
-  </si>
-  <si>
-    <t>台北台大郵局（第2 3支 局）</t>
+    <t>匯豐（台灣）商業銀行台北分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>遠東國際商業銀行板橋埔墘分行</t>
+  </si>
+  <si>
+    <t>台北台大郵局（第23支局）</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -230,13 +230,13 @@
     <t>信用貸款</t>
   </si>
   <si>
-    <t>遠東銀行板橋中正分行 新北市板橋區中正路228號</t>
-  </si>
-  <si>
-    <t>3，754，458</t>
-  </si>
-  <si>
-    <t>102年08月 20日</t>
+    <t>遠東銀行板橋中正分行新北市板橋區中正路228號</t>
+  </si>
+  <si>
+    <t>3754458</t>
+  </si>
+  <si>
+    <t>102年08月20日</t>
   </si>
   <si>
     <t>理財</t>

--- a/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
@@ -18,25 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
   <si>
     <t>國瑞Wish</t>
   </si>
@@ -53,24 +35,15 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>華南商業銀行台大分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>匯豐（台灣）商業銀行台北分行</t>
   </si>
   <si>
@@ -83,9 +56,6 @@
     <t>台北台大郵局（第23支局）</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>中華郵政存簿儲金</t>
   </si>
   <si>
@@ -95,9 +65,6 @@
     <t>外幣存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>人民幣</t>
   </si>
   <si>
@@ -140,9 +107,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>鴻海精密工業股份有限公司</t>
-  </si>
-  <si>
     <t>位速科技股份有限公司</t>
   </si>
   <si>
@@ -176,27 +140,18 @@
     <t>tmp7d8c1</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>特別增值分紅終身壽險</t>
+  </si>
+  <si>
     <t>保德信國際人壽</t>
   </si>
   <si>
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>特別增值分紅終身壽險</t>
-  </si>
-  <si>
     <t>家用定期壽險</t>
   </si>
   <si>
@@ -212,34 +167,19 @@
     <t>安泰分红終身壽險</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>信用貸款</t>
   </si>
   <si>
     <t>遠東銀行板橋中正分行新北市板橋區中正路228號</t>
   </si>
   <si>
+    <t>102年08月20日</t>
+  </si>
+  <si>
+    <t>理財</t>
+  </si>
+  <si>
     <t>3754458</t>
-  </si>
-  <si>
-    <t>102年08月20日</t>
-  </si>
-  <si>
-    <t>理財</t>
   </si>
 </sst>
 </file>
@@ -598,53 +538,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="1">
+        <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +571,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -662,170 +579,147 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>6480</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>6480</v>
+        <v>672819</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>672819</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>8366</v>
+        <v>4535528</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>4535528</v>
+        <v>1233528</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>1233528</v>
+        <v>630441</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1964.72</v>
+      </c>
       <c r="G7" s="2">
-        <v>630441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1964.72</v>
-      </c>
-      <c r="G8" s="2">
         <v>9627.12</v>
       </c>
     </row>
@@ -836,7 +730,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -844,350 +738,306 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>1252</v>
+        <v>748</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2">
-        <v>12520</v>
+        <v>7480</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2">
         <v>1757</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N2" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>748</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2">
-        <v>7480</v>
+        <v>14950</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2">
         <v>1757</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N3" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>1495</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2">
-        <v>14950</v>
+        <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2">
         <v>1757</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N4" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2">
-        <v>200000</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2">
         <v>1757</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N5" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>150000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2">
-        <v>10</v>
+        <v>1500000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2">
         <v>1757</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N6" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
-        <v>1500000</v>
+        <v>100000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2">
         <v>1757</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>63</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1757</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="2">
         <v>63</v>
       </c>
     </row>
@@ -1198,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,111 +1056,97 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>97</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1328,68 +1164,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3144844</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3144844</v>
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>108</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
   <si>
     <t>國瑞Wish</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
     <t>位速科技股份有限公司</t>
@@ -538,13 +541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,6 +564,29 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -571,7 +597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -597,10 +623,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -613,15 +639,15 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>672819</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -634,15 +660,15 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>8366</v>
+        <v>672819</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -655,18 +681,18 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>4535528</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -676,18 +702,18 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1233528</v>
+        <v>4535528</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -697,29 +723,50 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>630441</v>
+        <v>1233528</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>630441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>1964.72</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>9627.12</v>
       </c>
     </row>
@@ -730,7 +777,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -779,7 +826,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -788,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>748</v>
+        <v>1252</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -797,33 +844,33 @@
         <v>7</v>
       </c>
       <c r="G2" s="2">
-        <v>7480</v>
+        <v>12520</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2">
         <v>1757</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -832,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>1495</v>
+        <v>748</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -841,33 +888,33 @@
         <v>7</v>
       </c>
       <c r="G3" s="2">
-        <v>14950</v>
+        <v>7480</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" s="2">
         <v>1757</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -876,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>20000</v>
+        <v>1495</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -885,33 +932,33 @@
         <v>7</v>
       </c>
       <c r="G4" s="2">
-        <v>200000</v>
+        <v>14950</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="2">
         <v>1757</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -920,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -929,33 +976,33 @@
         <v>7</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="2">
         <v>1757</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -964,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>150000</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -973,33 +1020,33 @@
         <v>7</v>
       </c>
       <c r="G6" s="2">
-        <v>1500000</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6" s="2">
         <v>1757</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
@@ -1008,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
@@ -1017,27 +1064,71 @@
         <v>7</v>
       </c>
       <c r="G7" s="2">
-        <v>100000</v>
+        <v>1500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="2">
         <v>1757</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="2">
+      <c r="L8" s="2">
+        <v>1757</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="2">
         <v>63</v>
       </c>
     </row>
@@ -1048,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1056,10 +1147,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1067,13 +1158,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -1081,7 +1172,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>43</v>
@@ -1095,10 +1186,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
@@ -1109,10 +1200,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>47</v>
@@ -1123,13 +1214,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>1</v>
@@ -1137,15 +1228,29 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1156,7 +1261,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1164,45 +1269,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1">
         <v>3144844</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3144844</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>108</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
@@ -18,7 +18,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="60">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>國瑞Wish</t>
   </si>
@@ -35,6 +74,21 @@
     <t>(超過五年）</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-19</t>
+  </si>
+  <si>
+    <t>楊玉欣</t>
+  </si>
+  <si>
+    <t>tmp7d8c1</t>
+  </si>
+  <si>
     <t>華南商業銀行台大分行</t>
   </si>
   <si>
@@ -68,12 +122,6 @@
     <t>人民幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -86,27 +134,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
@@ -129,18 +156,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-19</t>
-  </si>
-  <si>
-    <t>楊玉欣</t>
-  </si>
-  <si>
-    <t>tmp7d8c1</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -541,53 +556,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1757</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -605,16 +662,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -626,16 +683,16 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -647,16 +704,16 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -668,16 +725,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -689,16 +746,16 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -710,16 +767,16 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -731,16 +788,16 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -752,16 +809,16 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2">
         <v>1964.72</v>
@@ -785,43 +842,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -829,10 +886,10 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>1252</v>
@@ -841,28 +898,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>12520</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>1757</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2">
         <v>57</v>
@@ -873,10 +930,10 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>748</v>
@@ -885,28 +942,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2">
         <v>7480</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2">
         <v>1757</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N3" s="2">
         <v>58</v>
@@ -917,10 +974,10 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>1495</v>
@@ -929,28 +986,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2">
         <v>14950</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2">
         <v>1757</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2">
         <v>59</v>
@@ -961,10 +1018,10 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>20000</v>
@@ -973,28 +1030,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2">
         <v>1757</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N5" s="2">
         <v>60</v>
@@ -1005,10 +1062,10 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1017,28 +1074,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2">
         <v>1757</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N6" s="2">
         <v>61</v>
@@ -1049,10 +1106,10 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>150000</v>
@@ -1061,28 +1118,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2">
         <v>1500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2">
         <v>1757</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N7" s="2">
         <v>62</v>
@@ -1093,10 +1150,10 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>10000</v>
@@ -1105,28 +1162,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2">
         <v>100000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2">
         <v>1757</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N8" s="2">
         <v>63</v>
@@ -1147,13 +1204,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1161,13 +1218,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1175,13 +1232,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1189,13 +1246,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1203,13 +1260,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1217,13 +1274,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1231,13 +1288,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1245,13 +1302,13 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1269,22 +1326,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1">
         <v>3144844</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1292,22 +1349,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>3144844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1315,22 +1372,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
@@ -74,7 +74,7 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>land</t>
+    <t>car</t>
   </si>
   <si>
     <t>normal</t>

--- a/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -89,49 +89,58 @@
     <t>tmp7d8c1</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>華南商業銀行台大分行</t>
   </si>
   <si>
+    <t>匯豐（台灣）商業銀行台北分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>遠東國際商業銀行板橋埔墘分行</t>
+  </si>
+  <si>
+    <t>台北台大郵局（第23支局）</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>中華郵政存簿儲金</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>外幣存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>匯豐（台灣）商業銀行台北分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>遠東國際商業銀行板橋埔墘分行</t>
-  </si>
-  <si>
-    <t>台北台大郵局（第23支局）</t>
-  </si>
-  <si>
-    <t>中華郵政存簿儲金</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>外幣存款</t>
-  </si>
-  <si>
     <t>人民幣</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
   </si>
   <si>
     <t>鴻海精密工業股份有限公司</t>
@@ -654,13 +663,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -671,160 +680,318 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>6480</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1757</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>672819</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1757</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>8366</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1757</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>4535528</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1757</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1233528</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1757</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>630441</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1757</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2">
-        <v>1964.72</v>
-      </c>
-      <c r="G8" s="2">
         <v>9627.12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1757</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -848,16 +1015,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -886,7 +1053,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -898,13 +1065,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>12520</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>19</v>
@@ -930,7 +1097,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -942,13 +1109,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2">
         <v>7480</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>19</v>
@@ -974,7 +1141,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -986,13 +1153,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2">
         <v>14950</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>19</v>
@@ -1018,7 +1185,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1030,13 +1197,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>19</v>
@@ -1062,7 +1229,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1074,13 +1241,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>19</v>
@@ -1106,7 +1273,7 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1118,13 +1285,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>1500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
@@ -1150,7 +1317,7 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1162,13 +1329,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2">
         <v>100000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>19</v>
@@ -1204,10 +1371,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
@@ -1218,10 +1385,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -1232,10 +1399,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -1246,10 +1413,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -1260,10 +1427,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -1274,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -1288,10 +1455,10 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -1302,10 +1469,10 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
@@ -1326,22 +1493,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>3144844</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1349,22 +1516,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>3144844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1372,22 +1539,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2013-12-19_財產申報表_tmp7d8c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -167,18 +167,21 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>保德信國際人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>特別增值分紅終身壽險</t>
   </si>
   <si>
-    <t>保德信國際人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>家用定期壽險</t>
   </si>
   <si>
@@ -194,6 +197,15 @@
     <t>安泰分红終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>信用貸款</t>
   </si>
   <si>
@@ -206,7 +218,7 @@
     <t>理財</t>
   </si>
   <si>
-    <t>3754458</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1363,38 +1375,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>92</v>
       </c>
@@ -1402,13 +1456,34 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>93</v>
       </c>
@@ -1416,13 +1491,34 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>94</v>
       </c>
@@ -1430,13 +1526,34 @@
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>95</v>
       </c>
@@ -1444,13 +1561,34 @@
         <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>96</v>
       </c>
@@ -1458,13 +1596,34 @@
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>97</v>
       </c>
@@ -1472,10 +1631,31 @@
         <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1485,76 +1665,139 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3144844</v>
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>3144844</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1757</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3754458</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1757</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
